--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_18-15.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_18-15.xlsx
@@ -143,6 +143,9 @@
     <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
   </si>
   <si>
+    <t>EASYRON 30 TABLETS</t>
+  </si>
+  <si>
     <t>EPICEPHIN 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MEDIPHA D3 DROP</t>
   </si>
   <si>
     <t>MEGALASE SYRUP 125 ML</t>
@@ -1585,17 +1591,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1603,7 +1609,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1611,17 +1617,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1637,13 +1643,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1663,13 +1669,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1689,13 +1695,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>169.19999999999999</v>
+        <v>72</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1715,13 +1721,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>54</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1741,13 +1747,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1759,7 +1765,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1767,17 +1773,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1785,7 +1791,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1793,13 +1799,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>9</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1819,17 +1825,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>86.5</v>
+        <v>9</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1845,17 +1851,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>58</v>
+        <v>86.5</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1871,17 +1877,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.40000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1889,7 +1895,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1897,17 +1903,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1923,13 +1929,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -1955,11 +1961,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1975,13 +1981,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -1993,7 +1999,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2001,17 +2007,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.33000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2019,7 +2025,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2027,13 +2033,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>24.960000000000001</v>
+        <v>108</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2053,17 +2059,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2079,17 +2085,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>33.840000000000003</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2105,17 +2111,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2123,7 +2129,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2131,17 +2137,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>87</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2149,7 +2155,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2157,17 +2163,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2175,7 +2181,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2183,17 +2189,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.17000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2201,7 +2207,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2209,17 +2215,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2227,7 +2233,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2235,17 +2241,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2261,13 +2267,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2293,7 +2299,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2319,7 +2325,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
@@ -2345,7 +2351,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
@@ -2365,13 +2371,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2391,17 +2397,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>134.40000000000001</v>
+        <v>90</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2417,13 +2423,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2443,17 +2449,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>83</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2469,13 +2475,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
@@ -2495,17 +2501,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2521,17 +2527,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2547,17 +2553,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>74.689999999999998</v>
+        <v>23</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2573,17 +2579,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.33000000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2599,17 +2605,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>18</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2625,17 +2631,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>24.960000000000001</v>
+        <v>128</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2651,17 +2657,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2677,13 +2683,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>69</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2703,17 +2709,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>102.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2735,11 +2741,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2755,13 +2761,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>40</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2781,17 +2787,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>78.400000000000006</v>
+        <v>168</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2799,7 +2805,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2807,13 +2813,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2825,7 +2831,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2839,11 +2845,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>10</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2851,7 +2857,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2859,17 +2865,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2877,7 +2883,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2885,17 +2891,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2903,7 +2909,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2911,17 +2917,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2929,7 +2935,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2937,17 +2943,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2955,7 +2961,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2963,17 +2969,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2981,7 +2987,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2989,17 +2995,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3015,17 +3021,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3033,7 +3039,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3041,17 +3047,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3059,7 +3065,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3067,17 +3073,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3085,7 +3091,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3093,51 +3099,103 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="26.25" customHeight="1">
-      <c r="K87" s="11">
-        <v>4990.9399999999996</v>
-      </c>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="12">
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c t="s" r="B87" s="7">
+        <v>118</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c t="s" r="H87" s="8">
+        <v>101</v>
+      </c>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9">
+        <v>35</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c r="N87" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" customHeight="1">
+      <c r="A88" s="6">
+        <v>85</v>
+      </c>
+      <c t="s" r="B88" s="7">
         <v>119</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c t="s" r="F88" s="13">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c t="s" r="H88" s="8">
         <v>120</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-      <c t="s" r="I88" s="15">
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9">
+        <v>30</v>
+      </c>
+      <c r="M88" s="9"/>
+      <c r="N88" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="K89" s="11">
+        <v>5185.9399999999996</v>
+      </c>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="12">
         <v>121</v>
       </c>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c t="s" r="F90" s="13">
+        <v>122</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
+      <c t="s" r="I90" s="15">
+        <v>123</v>
+      </c>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
+  <mergeCells count="266">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3394,10 +3452,16 @@
     <mergeCell ref="B86:G86"/>
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="I88:N88"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="I90:N90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
